--- a/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,26 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>candidate0@gmail.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-01-18T19:49:02.796335Z</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>דוא"ל</t>
+          <t>אימייל</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>חותמת זמן</t>
+          <t>זמן</t>
         </is>
       </c>
     </row>

--- a/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,66 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>candidate1@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-01-22T17:53:10.161743Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>halroy13@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-01-22T17:51:00.440543Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>candidate0@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-01-22T17:51:42.574991Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-01-22T17:53:10.161743Z</t>
+          <t>2023-01-22 17:53:10.161743</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-01-22T17:51:00.440543Z</t>
+          <t>2023-01-22 17:51:00.440543</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-22T17:51:42.574991Z</t>
+          <t>2023-01-22 17:51:42.574991</t>
         </is>
       </c>
     </row>

--- a/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
+++ b/backend/sql/data/snapshots/snap0/formsAnswersTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>דוא"ל</t>
+          <t>אימייל</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,14 +451,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>חותמת זמן</t>
+          <t>זמן</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>candidate0@gmail.com</t>
+          <t>candidate1@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,7 +471,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-01-18T19:49:02.796335Z</t>
+          <t>2023-01-22 17:53:10.161743</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>halroy13@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-01-22 17:51:00.440543</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>candidate0@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1K4v6Iyh9MWTu-4i3uYWtblb57wrwJC_hLnzYLk8UKtk</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-01-22 17:51:42.574991</t>
         </is>
       </c>
     </row>
